--- a/BackTest/2019-10-27 BackTest LTC.xlsx
+++ b/BackTest/2019-10-27 BackTest LTC.xlsx
@@ -1641,20 +1641,14 @@
         <v>64316.66666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>64350</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1689,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1728,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1767,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1845,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1884,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1923,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1962,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2001,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2040,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2079,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2157,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2196,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2228,20 +2166,14 @@
         <v>63883.33333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>63800</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2269,20 +2201,14 @@
         <v>63850</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>63850</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2310,20 +2236,14 @@
         <v>63800</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>63800</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2351,20 +2271,14 @@
         <v>63833.33333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>63800</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2392,20 +2306,14 @@
         <v>63716.66666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>63600</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2433,20 +2341,14 @@
         <v>63700</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>63500</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2474,20 +2376,14 @@
         <v>63700</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>63550</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2515,20 +2411,14 @@
         <v>63783.33333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>63800</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2556,20 +2446,14 @@
         <v>63800</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>63800</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2597,20 +2481,14 @@
         <v>64083.33333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>64000</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2638,20 +2516,14 @@
         <v>64216.66666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>64600</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2686,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2725,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2764,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2803,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2842,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2881,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2920,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2998,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3037,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3108,20 +2936,14 @@
         <v>64016.66666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>64050</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3149,20 +2971,14 @@
         <v>64050</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>63950</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3190,20 +3006,14 @@
         <v>64033.33333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>63950</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3231,20 +3041,14 @@
         <v>64033.33333333334</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>64050</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3272,20 +3076,14 @@
         <v>64016.66666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>64050</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3313,20 +3111,14 @@
         <v>64033.33333333334</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>64000</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3354,20 +3146,14 @@
         <v>64066.66666666666</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>64150</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3395,20 +3181,14 @@
         <v>64133.33333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>64150</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3436,20 +3216,14 @@
         <v>64250</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>64400</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3477,20 +3251,14 @@
         <v>64283.33333333334</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>64250</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3518,20 +3286,14 @@
         <v>64350</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>64400</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3559,20 +3321,14 @@
         <v>64350</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>64400</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3600,20 +3356,14 @@
         <v>64400</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>64400</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3648,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3687,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3765,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3882,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4038,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4077,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4155,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4194,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4233,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4272,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4311,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4541,15 +4199,11 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4580,15 +4234,11 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4619,15 +4269,11 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4779,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4857,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5013,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5130,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5247,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5286,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5325,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5364,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5481,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5520,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5559,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5676,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5715,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5793,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5832,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5871,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5910,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6144,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6222,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6261,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6300,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6339,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6378,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6417,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6647,16 +6089,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6684,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6719,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -8886,13 +8326,17 @@
         <v>64683.33333333334</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>64700</v>
+      </c>
+      <c r="K227" t="n">
+        <v>64700</v>
+      </c>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
@@ -8921,14 +8365,22 @@
         <v>64733.33333333334</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>64700</v>
+      </c>
+      <c r="K228" t="n">
+        <v>64700</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8956,14 +8408,22 @@
         <v>64733.33333333334</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>64800</v>
+      </c>
+      <c r="K229" t="n">
+        <v>64700</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8991,13 +8451,17 @@
         <v>64733.33333333334</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>64700</v>
+      </c>
+      <c r="K230" t="n">
+        <v>64700</v>
+      </c>
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
@@ -9026,14 +8490,22 @@
         <v>64700</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>64700</v>
+      </c>
+      <c r="K231" t="n">
+        <v>64700</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9061,14 +8533,22 @@
         <v>64700</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>64700</v>
+      </c>
+      <c r="K232" t="n">
+        <v>64700</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9446,13 +8926,17 @@
         <v>64900</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>64900</v>
+      </c>
+      <c r="K243" t="n">
+        <v>64900</v>
+      </c>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
@@ -9481,14 +8965,22 @@
         <v>64900</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>64900</v>
+      </c>
+      <c r="K244" t="n">
+        <v>64900</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9522,8 +9014,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>64900</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest LTC.xlsx
+++ b/BackTest/2019-10-27 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,14 +1045,10 @@
         <v>-971.33506573</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>64750</v>
-      </c>
-      <c r="J20" t="n">
-        <v>64750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1082,19 +1078,11 @@
         <v>-961.69106573</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>64800</v>
-      </c>
-      <c r="J21" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1123,19 +1111,11 @@
         <v>-955.39646573</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>65100</v>
-      </c>
-      <c r="J22" t="n">
-        <v>64750</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1144,10 @@
         <v>-955.39646573</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J23" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1201,19 +1177,11 @@
         <v>-947.6323657300001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>65150</v>
-      </c>
-      <c r="J24" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1245,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1281,19 +1243,11 @@
         <v>-981.8773657300001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>64850</v>
-      </c>
-      <c r="J26" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1322,19 +1276,11 @@
         <v>-967.3187657300001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>64600</v>
-      </c>
-      <c r="J27" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,19 +1309,11 @@
         <v>-967.4187657300001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64800</v>
-      </c>
-      <c r="J28" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1407,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1446,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1485,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1524,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1563,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1602,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1680,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1719,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1755,19 +1639,11 @@
         <v>-961.6299657300002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>64550</v>
-      </c>
-      <c r="J38" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1796,19 +1672,15 @@
         <v>-965.2999657300002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>64400</v>
       </c>
       <c r="J39" t="n">
-        <v>65150</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>64400</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1837,17 +1709,17 @@
         <v>-966.2999657300002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>64350</v>
       </c>
       <c r="J40" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1878,17 +1750,17 @@
         <v>-982.2668657300002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>64300</v>
       </c>
       <c r="J41" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1919,13 +1791,13 @@
         <v>-1004.60506573</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>64200</v>
       </c>
       <c r="J42" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1960,13 +1832,13 @@
         <v>-990.5214657300002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>64000</v>
       </c>
       <c r="J43" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2001,13 +1873,13 @@
         <v>-1257.62526573</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>64200</v>
       </c>
       <c r="J44" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2042,13 +1914,13 @@
         <v>-1214.26696573</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>63800</v>
       </c>
       <c r="J45" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2083,11 +1955,13 @@
         <v>-1227.68816573</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>63900</v>
+      </c>
       <c r="J46" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2122,13 +1996,13 @@
         <v>-1298.16846573</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>63700</v>
       </c>
       <c r="J47" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2163,13 +2037,13 @@
         <v>-1078.00406573</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>63150</v>
       </c>
       <c r="J48" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2204,13 +2078,13 @@
         <v>-1018.68216573</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>63500</v>
       </c>
       <c r="J49" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2245,13 +2119,13 @@
         <v>-964.70816573</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>63700</v>
       </c>
       <c r="J50" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2286,13 +2160,13 @@
         <v>-955.63626573</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>63950</v>
       </c>
       <c r="J51" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2327,13 +2201,13 @@
         <v>-933.85816573</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>64000</v>
       </c>
       <c r="J52" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2368,11 +2242,13 @@
         <v>-933.85816573</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64200</v>
+      </c>
       <c r="J53" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2407,11 +2283,13 @@
         <v>-933.53416573</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64200</v>
+      </c>
       <c r="J54" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2446,11 +2324,13 @@
         <v>-899.1942657300001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64400</v>
+      </c>
       <c r="J55" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2485,13 +2365,11 @@
         <v>-892.0842657300001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>64600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2530,7 +2408,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2569,7 +2447,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2604,11 +2482,11 @@
         <v>-784.3841657300002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2643,11 +2521,11 @@
         <v>-779.3841657300002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2682,11 +2560,11 @@
         <v>-780.1268657300002</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2721,11 +2599,11 @@
         <v>-789.9104657300002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2760,11 +2638,11 @@
         <v>-839.8053657300002</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2799,11 +2677,11 @@
         <v>-839.8053657300002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2838,11 +2716,11 @@
         <v>-832.8054657300002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2881,7 +2759,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2920,7 +2798,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2959,7 +2837,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2998,7 +2876,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3037,7 +2915,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3076,7 +2954,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3115,7 +2993,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3150,11 +3028,11 @@
         <v>-838.4149657300002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3189,11 +3067,11 @@
         <v>-838.4149657300002</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3228,11 +3106,11 @@
         <v>-838.4149657300002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3267,11 +3145,11 @@
         <v>-837.8432657300002</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3306,11 +3184,11 @@
         <v>-885.3763657300002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3345,11 +3223,11 @@
         <v>-886.0296657300001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3384,11 +3262,11 @@
         <v>-890.4174657300001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3423,11 +3301,11 @@
         <v>-900.5912657300001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3462,11 +3340,11 @@
         <v>-900.5912657300001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3501,11 +3379,11 @@
         <v>-897.2227657300001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3540,11 +3418,11 @@
         <v>-904.2622657300001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3579,11 +3457,11 @@
         <v>-901.5601657300001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3618,11 +3496,11 @@
         <v>-901.5601657300001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3657,11 +3535,11 @@
         <v>-924.4934657300001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3696,11 +3574,11 @@
         <v>-924.3981657300002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3735,11 +3613,11 @@
         <v>-976.8938657300002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3774,11 +3652,11 @@
         <v>-1015.29386573</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3813,11 +3691,11 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3856,7 +3734,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3891,11 +3769,11 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3932,9 +3810,11 @@
       <c r="H93" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>64150</v>
+      </c>
       <c r="J93" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3971,9 +3851,11 @@
       <c r="H94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>64150</v>
+      </c>
       <c r="J94" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4008,13 +3890,13 @@
         <v>-961.4143657300002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>64350</v>
       </c>
       <c r="J95" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4051,9 +3933,11 @@
       <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>64450</v>
+      </c>
       <c r="J96" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4088,11 +3972,11 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4127,11 +4011,11 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4166,11 +4050,11 @@
         <v>-971.7546657300002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4205,11 +4089,11 @@
         <v>-970.1356657300001</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4244,11 +4128,11 @@
         <v>-970.2357657300001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4283,11 +4167,11 @@
         <v>-970.2357657300001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4322,11 +4206,11 @@
         <v>-970.2357657300001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4361,11 +4245,11 @@
         <v>-974.7251657300002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4402,9 +4286,11 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>64300</v>
+      </c>
       <c r="J105" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4441,9 +4327,11 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>64100</v>
+      </c>
       <c r="J106" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4480,9 +4368,11 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>64250</v>
+      </c>
       <c r="J107" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4521,7 +4411,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4556,13 +4446,11 @@
         <v>-1017.81086573</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>64000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4597,13 +4485,11 @@
         <v>-1019.14226573</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>63950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4638,13 +4524,11 @@
         <v>-1011.26666573</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>63700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4679,13 +4563,13 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>63900</v>
       </c>
       <c r="J112" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4720,11 +4604,13 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>63800</v>
+      </c>
       <c r="J113" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4759,13 +4645,13 @@
         <v>-1083.23746573</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>63800</v>
       </c>
       <c r="J114" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4800,13 +4686,13 @@
         <v>-913.5951657300002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>63550</v>
       </c>
       <c r="J115" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4841,13 +4727,13 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>63750</v>
       </c>
       <c r="J116" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4882,13 +4768,13 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>63800</v>
       </c>
       <c r="J117" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4923,13 +4809,13 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>63800</v>
       </c>
       <c r="J118" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4964,13 +4850,13 @@
         <v>-397.8899657300002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>63800</v>
       </c>
       <c r="J119" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5009,7 +4895,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5048,7 +4934,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5087,7 +4973,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5126,7 +5012,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5165,7 +5051,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5204,7 +5090,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5243,7 +5129,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5282,7 +5168,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5317,13 +5203,11 @@
         <v>-733.6979502500001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>64500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5362,7 +5246,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5397,13 +5281,11 @@
         <v>-864.1484502500001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>64000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5442,7 +5324,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5477,11 +5359,13 @@
         <v>-829.6071502500001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>64050</v>
+      </c>
       <c r="J132" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5516,11 +5400,13 @@
         <v>-829.6071502500001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>64050</v>
+      </c>
       <c r="J133" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5555,13 +5441,13 @@
         <v>-845.3712502500001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>64050</v>
       </c>
       <c r="J134" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5596,13 +5482,13 @@
         <v>-842.8963502500001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>64000</v>
       </c>
       <c r="J135" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5637,13 +5523,11 @@
         <v>-845.6008502500001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5678,13 +5562,11 @@
         <v>-811.2171502500001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>64000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5719,13 +5601,11 @@
         <v>-809.8364502500001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5764,7 +5644,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5803,7 +5683,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5842,7 +5722,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5881,7 +5761,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5920,7 +5800,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5959,7 +5839,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5998,7 +5878,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6037,7 +5917,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6076,7 +5956,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6115,7 +5995,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6154,7 +6034,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6193,7 +6073,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6232,7 +6112,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6271,7 +6151,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6310,7 +6190,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6349,7 +6229,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6388,7 +6268,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6427,7 +6307,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6466,7 +6346,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6505,7 +6385,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6544,7 +6424,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6583,7 +6463,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6622,7 +6502,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6661,7 +6541,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6700,7 +6580,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6735,13 +6615,11 @@
         <v>-485.95275025</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>65350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6780,7 +6658,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6819,7 +6697,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6858,7 +6736,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6897,7 +6775,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6936,7 +6814,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6975,7 +6853,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7014,7 +6892,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7053,7 +6931,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7092,7 +6970,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7131,7 +7009,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7170,7 +7048,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7209,7 +7087,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7248,7 +7126,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7283,11 +7161,11 @@
         <v>-473.24205025</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7326,7 +7204,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7365,7 +7243,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7404,7 +7282,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7439,11 +7317,11 @@
         <v>-436.73915025</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7482,7 +7360,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7521,7 +7399,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7560,7 +7438,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7599,7 +7477,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7638,7 +7516,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7677,7 +7555,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7716,7 +7594,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7755,7 +7633,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7794,7 +7672,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7833,7 +7711,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7872,7 +7750,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7911,7 +7789,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7950,7 +7828,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7989,7 +7867,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8028,7 +7906,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8067,7 +7945,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8106,7 +7984,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8145,7 +8023,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8184,7 +8062,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8223,7 +8101,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8262,7 +8140,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8301,7 +8179,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8340,7 +8218,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8379,7 +8257,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8418,7 +8296,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8457,7 +8335,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8496,7 +8374,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8535,7 +8413,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8574,7 +8452,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8613,7 +8491,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8652,7 +8530,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8691,7 +8569,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8730,7 +8608,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8769,7 +8647,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8808,7 +8686,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8847,7 +8725,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8886,7 +8764,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8925,7 +8803,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8964,7 +8842,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9003,7 +8881,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9038,19 +8916,19 @@
         <v>-422.7362024199998</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>65150</v>
+        <v>64400</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1.014186492709133</v>
+        <v>1</v>
       </c>
       <c r="M223" t="inlineStr"/>
     </row>
@@ -9080,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9110,11 +8994,17 @@
         <v>-303.1959741399997</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9146,8 +9036,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9179,8 +9075,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9212,8 +9114,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9245,8 +9153,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9278,8 +9192,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9311,8 +9231,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9344,8 +9270,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9377,8 +9309,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9410,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9443,8 +9387,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9476,8 +9426,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9509,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9542,8 +9504,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9575,8 +9543,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9608,8 +9582,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9641,8 +9621,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9674,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9707,8 +9699,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9740,8 +9738,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9773,8 +9777,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9806,8 +9816,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9839,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9905,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9938,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9971,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10004,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10037,8 +10089,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10070,8 +10128,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10103,8 +10167,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10136,8 +10206,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10169,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10202,8 +10284,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10235,8 +10323,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10268,8 +10362,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10301,8 +10401,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10334,8 +10440,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10367,8 +10479,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10400,8 +10518,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10433,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10466,8 +10596,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10499,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10532,8 +10674,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10562,11 +10710,17 @@
         <v>-579.1273309099998</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10598,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10631,8 +10791,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10664,8 +10830,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +10866,17 @@
         <v>-580.3806309099998</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10727,11 +10905,17 @@
         <v>-598.6736309099998</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10760,11 +10944,17 @@
         <v>-600.7851309099998</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10793,11 +10983,17 @@
         <v>-600.7851309099998</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10826,11 +11022,17 @@
         <v>-604.4129309099998</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10862,8 +11064,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10895,8 +11103,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10925,11 +11139,17 @@
         <v>-604.4129309099998</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10958,11 +11178,17 @@
         <v>-604.4129309099998</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10991,11 +11217,17 @@
         <v>-619.8291309099998</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11259,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11093,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11123,11 +11373,17 @@
         <v>-581.9860309099998</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11159,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11192,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +11493,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11258,8 +11532,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11291,8 +11571,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +11610,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11357,8 +11649,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11688,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11423,8 +11727,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11456,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +11805,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11522,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11555,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11588,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11621,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11654,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11687,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11720,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11753,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11786,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11819,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11852,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11885,8 +12273,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11918,8 +12312,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11951,8 +12351,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11984,8 +12390,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12017,8 +12429,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12116,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +12585,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12663,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12248,8 +12702,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12281,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12314,8 +12780,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12347,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12380,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12446,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12476,15 +12972,17 @@
         <v>-242.6809309099998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>65100</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+        <v>64400</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12513,17 +13011,15 @@
         <v>-242.7809309099998</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L328" t="n">
@@ -12554,17 +13050,15 @@
         <v>-243.7794309099998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>64900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L329" t="n">
@@ -12595,13 +13089,11 @@
         <v>-243.2115309099998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>64800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12636,13 +13128,11 @@
         <v>-247.7152309099998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12681,7 +13171,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12720,7 +13210,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12759,7 +13249,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12798,7 +13288,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12837,7 +13327,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12876,7 +13366,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12915,7 +13405,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12954,7 +13444,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12993,7 +13483,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13032,7 +13522,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13071,7 +13561,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13106,13 +13596,11 @@
         <v>-135.4906309099998</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>65000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13151,7 +13639,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13186,13 +13674,11 @@
         <v>-146.0791309099998</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>65150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13227,13 +13713,11 @@
         <v>-146.0791309099998</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13268,13 +13752,11 @@
         <v>-136.0819309099998</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>65100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13309,13 +13791,11 @@
         <v>-136.0712309099998</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>65200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13354,7 +13834,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13393,7 +13873,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13432,7 +13912,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13471,7 +13951,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13510,7 +13990,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13545,19 +14025,19 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L354" t="n">
-        <v>1.005752688172043</v>
+        <v>1</v>
       </c>
       <c r="M354" t="inlineStr"/>
     </row>
@@ -13584,11 +14064,17 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13617,11 +14103,17 @@
         <v>-126.2749309099998</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13650,11 +14142,17 @@
         <v>-136.5573309099998</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13686,8 +14184,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13716,11 +14220,17 @@
         <v>-151.2803309099998</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13752,8 +14262,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13785,8 +14301,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13818,8 +14340,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13848,11 +14376,17 @@
         <v>-233.1513309099998</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13884,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13917,8 +14457,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13950,8 +14496,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +14532,17 @@
         <v>-54.38753090999978</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14013,11 +14571,17 @@
         <v>-45.86853090999978</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14046,11 +14610,17 @@
         <v>-56.49063090999978</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14079,11 +14649,17 @@
         <v>-33.53083090999978</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14112,11 +14688,17 @@
         <v>-33.53083090999978</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +14727,17 @@
         <v>-30.55553090999978</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +14766,17 @@
         <v>-30.52003090999978</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14211,11 +14805,17 @@
         <v>-31.52003090999978</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14244,11 +14844,17 @@
         <v>3.479969090000221</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +14883,17 @@
         <v>3.279969090000221</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14313,8 +14925,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14346,8 +14964,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14379,8 +15003,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14412,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14445,8 +15081,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14478,8 +15120,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14511,8 +15159,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14544,8 +15198,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14577,8 +15237,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14610,8 +15276,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14643,8 +15315,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14676,8 +15354,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14709,8 +15393,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14742,8 +15432,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14775,8 +15471,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14808,8 +15510,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14841,8 +15549,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14874,8 +15588,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14907,8 +15627,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14940,8 +15666,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14973,8 +15705,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15006,8 +15744,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15039,8 +15783,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15072,8 +15822,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15105,8 +15861,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15138,8 +15900,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15171,8 +15939,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15204,8 +15978,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15237,8 +16017,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15270,8 +16056,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15303,8 +16095,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15336,8 +16134,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15369,8 +16173,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15402,8 +16212,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15435,8 +16251,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15468,8 +16290,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15501,8 +16329,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15534,8 +16368,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15567,8 +16407,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15600,8 +16446,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15633,8 +16485,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15666,8 +16524,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15699,8 +16563,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15732,8 +16602,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15765,8 +16641,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15798,8 +16680,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15831,8 +16719,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15864,8 +16758,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15897,8 +16797,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15930,8 +16836,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15963,8 +16875,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15996,8 +16914,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16029,8 +16953,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16062,8 +16992,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16095,8 +17031,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16128,8 +17070,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16161,8 +17109,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16194,8 +17148,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16227,8 +17187,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16260,8 +17226,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16293,8 +17265,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16326,8 +17304,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16359,8 +17343,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16392,8 +17382,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16425,8 +17421,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16455,11 +17457,17 @@
         <v>-88.30519086999983</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16491,8 +17499,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16524,8 +17538,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16554,11 +17574,17 @@
         <v>-26.68719086999984</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16587,11 +17613,17 @@
         <v>-27.96179086999983</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16620,11 +17652,17 @@
         <v>-27.96179086999983</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16653,11 +17691,17 @@
         <v>-27.66179086999983</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16686,11 +17730,17 @@
         <v>-27.66179086999983</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16719,11 +17769,17 @@
         <v>-50.85100630999983</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16752,11 +17808,17 @@
         <v>-50.55100630999983</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16785,11 +17847,17 @@
         <v>-50.55100630999983</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16818,11 +17886,17 @@
         <v>-53.17430630999984</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16851,11 +17925,17 @@
         <v>-53.17430630999984</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16884,11 +17964,17 @@
         <v>-53.17430630999984</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16920,8 +18006,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16953,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16986,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17019,8 +18123,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17052,8 +18162,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17085,8 +18201,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17118,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17151,8 +18279,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17184,8 +18318,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17217,8 +18357,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17250,8 +18396,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17283,8 +18435,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17316,8 +18474,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17349,8 +18513,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17382,8 +18552,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17415,8 +18591,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17448,8 +18630,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17481,8 +18669,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17514,8 +18708,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17547,8 +18747,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17580,8 +18786,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17613,8 +18825,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17646,8 +18864,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17679,8 +18903,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17712,8 +18942,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17745,8 +18981,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17778,8 +19020,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17811,8 +19059,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17844,8 +19098,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17877,8 +19137,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17910,8 +19176,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17943,8 +19215,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17976,8 +19254,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18006,11 +19290,17 @@
         <v>-37.25350630999984</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18042,8 +19332,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18075,8 +19371,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18108,8 +19410,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18141,8 +19449,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18174,8 +19488,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18207,8 +19527,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18240,8 +19566,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18273,8 +19605,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18306,8 +19644,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18339,8 +19683,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18372,8 +19722,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18402,11 +19758,17 @@
         <v>117.9888936900002</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18438,8 +19800,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18471,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18501,11 +19875,17 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18534,11 +19914,17 @@
         <v>107.0472936900002</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18567,11 +19953,17 @@
         <v>129.4044936900002</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18603,8 +19995,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18633,13 +20031,19 @@
         <v>-108.1022063099998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>64400</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L508" t="n">
-        <v>1</v>
+        <v>1.033819875776398</v>
       </c>
       <c r="M508" t="inlineStr"/>
     </row>
@@ -18666,7 +20070,7 @@
         <v>-145.2604063099998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18699,7 +20103,7 @@
         <v>65.0729936900002</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18732,7 +20136,7 @@
         <v>65.0729936900002</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18765,7 +20169,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18798,7 +20202,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18831,7 +20235,7 @@
         <v>99.8429936900002</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18864,7 +20268,7 @@
         <v>132.2278936900002</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18897,7 +20301,7 @@
         <v>130.5799936900002</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18930,7 +20334,7 @@
         <v>186.6156936900002</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18963,7 +20367,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18996,7 +20400,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19029,7 +20433,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19062,7 +20466,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19095,7 +20499,7 @@
         <v>173.7162936900002</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19128,7 +20532,7 @@
         <v>163.1221936900002</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19161,7 +20565,7 @@
         <v>164.0603936900002</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19194,7 +20598,7 @@
         <v>61.86949369000018</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19227,7 +20631,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19260,7 +20664,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19293,7 +20697,7 @@
         <v>133.4475936900002</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19326,7 +20730,7 @@
         <v>211.9158936900002</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19986,7 +21390,7 @@
         <v>-90.93700630999984</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20118,7 +21522,7 @@
         <v>-302.2086063099998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20151,7 +21555,7 @@
         <v>-321.3826063099998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20184,7 +21588,7 @@
         <v>-894.9246063099998</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20217,7 +21621,7 @@
         <v>-752.5272063099999</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20250,7 +21654,7 @@
         <v>-752.5272063099999</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20283,7 +21687,7 @@
         <v>-713.3973063099999</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20294,6 +21698,6 @@
       <c r="M558" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LTC.xlsx
+++ b/BackTest/2019-10-27 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,14 +1672,10 @@
         <v>-965.2999657300002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>64400</v>
-      </c>
-      <c r="J39" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1709,19 +1705,11 @@
         <v>-966.2999657300002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>64350</v>
-      </c>
-      <c r="J40" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1750,265 +1738,221 @@
         <v>-982.2668657300002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>64300</v>
-      </c>
-      <c r="J41" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C42" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>22.3382</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1004.60506573</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D43" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E43" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14.0836</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-990.5214657300002</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>63800</v>
+      </c>
+      <c r="D44" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F44" t="n">
+        <v>267.1038</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1257.62526573</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C45" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D45" t="n">
+        <v>63900</v>
+      </c>
+      <c r="E45" t="n">
+        <v>63800</v>
+      </c>
+      <c r="F45" t="n">
+        <v>43.3583</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1214.26696573</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C46" t="n">
+        <v>63700</v>
+      </c>
+      <c r="D46" t="n">
+        <v>63700</v>
+      </c>
+      <c r="E46" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13.4212</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1227.68816573</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>63900</v>
+      </c>
+      <c r="J46" t="n">
+        <v>63900</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>63550</v>
+      </c>
+      <c r="C47" t="n">
+        <v>63150</v>
+      </c>
+      <c r="D47" t="n">
+        <v>63550</v>
+      </c>
+      <c r="E47" t="n">
+        <v>63150</v>
+      </c>
+      <c r="F47" t="n">
+        <v>70.4803</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1298.16846573</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>63700</v>
+      </c>
+      <c r="J47" t="n">
+        <v>63900</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>64100</v>
-      </c>
-      <c r="C42" t="n">
-        <v>64000</v>
-      </c>
-      <c r="D42" t="n">
-        <v>64100</v>
-      </c>
-      <c r="E42" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F42" t="n">
-        <v>22.3382</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1004.60506573</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>64200</v>
-      </c>
-      <c r="J42" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C43" t="n">
-        <v>64200</v>
-      </c>
-      <c r="D43" t="n">
-        <v>64200</v>
-      </c>
-      <c r="E43" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F43" t="n">
-        <v>14.0836</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-990.5214657300002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>64000</v>
-      </c>
-      <c r="J43" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>64000</v>
-      </c>
-      <c r="C44" t="n">
-        <v>63800</v>
-      </c>
-      <c r="D44" t="n">
-        <v>64000</v>
-      </c>
-      <c r="E44" t="n">
-        <v>63800</v>
-      </c>
-      <c r="F44" t="n">
-        <v>267.1038</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1257.62526573</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>64200</v>
-      </c>
-      <c r="J44" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C45" t="n">
-        <v>63900</v>
-      </c>
-      <c r="D45" t="n">
-        <v>63900</v>
-      </c>
-      <c r="E45" t="n">
-        <v>63800</v>
-      </c>
-      <c r="F45" t="n">
-        <v>43.3583</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1214.26696573</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>63800</v>
-      </c>
-      <c r="J45" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>63700</v>
-      </c>
-      <c r="C46" t="n">
-        <v>63700</v>
-      </c>
-      <c r="D46" t="n">
-        <v>63700</v>
-      </c>
-      <c r="E46" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F46" t="n">
-        <v>13.4212</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1227.68816573</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>63900</v>
-      </c>
-      <c r="J46" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>63550</v>
-      </c>
-      <c r="C47" t="n">
-        <v>63150</v>
-      </c>
-      <c r="D47" t="n">
-        <v>63550</v>
-      </c>
-      <c r="E47" t="n">
-        <v>63150</v>
-      </c>
-      <c r="F47" t="n">
-        <v>70.4803</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1298.16846573</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63700</v>
-      </c>
-      <c r="J47" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2043,7 +1987,7 @@
         <v>63150</v>
       </c>
       <c r="J48" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2084,7 +2028,7 @@
         <v>63500</v>
       </c>
       <c r="J49" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2125,7 +2069,7 @@
         <v>63700</v>
       </c>
       <c r="J50" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2166,7 +2110,7 @@
         <v>63950</v>
       </c>
       <c r="J51" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2207,7 +2151,7 @@
         <v>64000</v>
       </c>
       <c r="J52" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2248,7 +2192,7 @@
         <v>64200</v>
       </c>
       <c r="J53" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2283,13 +2227,11 @@
         <v>-933.53416573</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>64200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2324,13 +2266,11 @@
         <v>-899.1942657300001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>64400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2369,7 +2309,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2408,7 +2348,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2447,7 +2387,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2486,7 +2426,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2525,7 +2465,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2564,7 +2504,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2603,7 +2543,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2642,7 +2582,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2681,7 +2621,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2720,7 +2660,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2759,7 +2699,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2798,7 +2738,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2837,7 +2777,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2876,7 +2816,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2915,7 +2855,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2954,7 +2894,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2993,7 +2933,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3032,7 +2972,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3071,7 +3011,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3110,7 +3050,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3149,7 +3089,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3188,7 +3128,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3227,7 +3167,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3266,7 +3206,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3305,7 +3245,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3344,7 +3284,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3383,7 +3323,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3422,7 +3362,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3461,7 +3401,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3500,7 +3440,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3539,7 +3479,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3578,7 +3518,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3617,7 +3557,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3656,7 +3596,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3695,7 +3635,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3734,7 +3674,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3773,7 +3713,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3808,13 +3748,11 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3849,13 +3787,11 @@
         <v>-1000.45926573</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>64150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3890,13 +3826,11 @@
         <v>-961.4143657300002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>64350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3931,13 +3865,11 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>64450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3976,7 +3908,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4015,7 +3947,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4054,7 +3986,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4093,7 +4025,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4132,7 +4064,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4171,7 +4103,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4210,7 +4142,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4249,7 +4181,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4284,13 +4216,11 @@
         <v>-990.1251657300002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>64300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4325,13 +4255,11 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>64100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4366,13 +4294,11 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>64250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4411,7 +4337,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4450,7 +4376,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4489,7 +4415,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4528,7 +4454,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4563,13 +4489,11 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>63900</v>
-      </c>
-      <c r="J112" t="n">
-        <v>64400</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4604,13 +4528,11 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4645,13 +4567,11 @@
         <v>-1083.23746573</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>63800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4692,7 +4612,7 @@
         <v>63550</v>
       </c>
       <c r="J115" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4727,13 +4647,11 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>63750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4774,7 +4692,7 @@
         <v>63800</v>
       </c>
       <c r="J117" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4815,7 +4733,7 @@
         <v>63800</v>
       </c>
       <c r="J118" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4856,7 +4774,7 @@
         <v>63800</v>
       </c>
       <c r="J119" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4895,7 +4813,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4934,7 +4852,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4973,7 +4891,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5012,7 +4930,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5051,7 +4969,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5090,7 +5008,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5129,7 +5047,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5168,7 +5086,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5207,7 +5125,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5246,7 +5164,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5285,7 +5203,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5324,7 +5242,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5359,13 +5277,11 @@
         <v>-829.6071502500001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5400,13 +5316,11 @@
         <v>-829.6071502500001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5441,13 +5355,11 @@
         <v>-845.3712502500001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>64050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5482,13 +5394,11 @@
         <v>-842.8963502500001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>64000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5527,7 +5437,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5566,7 +5476,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5605,7 +5515,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5644,7 +5554,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5683,7 +5593,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5722,7 +5632,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5761,7 +5671,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5800,7 +5710,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5839,7 +5749,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5878,7 +5788,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5917,7 +5827,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5956,7 +5866,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5995,7 +5905,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6034,7 +5944,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6073,7 +5983,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6112,7 +6022,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6151,7 +6061,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6190,7 +6100,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6229,7 +6139,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6268,7 +6178,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6307,7 +6217,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6342,19 +6252,19 @@
         <v>-767.0235502500001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>64400</v>
+        <v>63900</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.010649452269171</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -6384,14 +6294,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6423,14 +6327,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6462,14 +6360,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6498,17 +6390,11 @@
         <v>-472.09325025</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6537,17 +6423,11 @@
         <v>-474.98725025</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6576,17 +6456,11 @@
         <v>-474.71715025</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6615,17 +6489,11 @@
         <v>-485.95275025</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6654,17 +6522,11 @@
         <v>-485.95275025</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6696,14 +6558,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6735,14 +6591,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6774,14 +6624,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6813,14 +6657,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +6690,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +6723,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6930,14 +6756,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6969,14 +6789,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7008,14 +6822,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7047,14 +6855,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7086,14 +6888,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7122,17 +6918,11 @@
         <v>-476.48945025</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7161,17 +6951,11 @@
         <v>-473.24205025</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7200,17 +6984,11 @@
         <v>-473.24205025</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7239,17 +7017,11 @@
         <v>-436.73915025</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7278,17 +7050,11 @@
         <v>-436.73915025</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7317,17 +7083,11 @@
         <v>-436.73915025</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7356,17 +7116,11 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7395,17 +7149,11 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7434,17 +7182,11 @@
         <v>-440.7078502499999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7473,17 +7215,11 @@
         <v>-427.0872502499999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7512,17 +7248,11 @@
         <v>-432.6193502499999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7551,17 +7281,11 @@
         <v>-451.9214502499999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7590,17 +7314,11 @@
         <v>-461.9918502499999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7629,17 +7347,11 @@
         <v>-459.3798502499999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7668,17 +7380,11 @@
         <v>-396.1770502499999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7707,17 +7413,11 @@
         <v>-406.9770502499999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7746,17 +7446,11 @@
         <v>-470.0218502499999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7785,17 +7479,11 @@
         <v>-475.5592502499999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7824,17 +7512,11 @@
         <v>-455.5592502499999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7863,17 +7545,11 @@
         <v>-472.6312502499999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7905,14 +7581,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7944,14 +7614,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7983,14 +7647,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +7680,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +7713,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8100,14 +7746,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +7779,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +7812,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +7845,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8256,14 +7878,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8295,14 +7911,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +7944,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8373,14 +7977,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8412,14 +8010,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8451,14 +8043,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8490,14 +8076,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8529,14 +8109,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8568,14 +8142,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8607,14 +8175,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8646,14 +8208,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8685,14 +8241,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8724,14 +8274,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8763,14 +8307,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8802,14 +8340,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8841,14 +8373,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8880,14 +8406,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8919,14 +8439,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8958,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8997,14 +8505,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9036,14 +8538,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9075,14 +8571,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9114,14 +8604,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9153,14 +8637,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9192,14 +8670,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9231,14 +8703,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9270,14 +8736,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9309,14 +8769,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9348,14 +8802,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9387,14 +8835,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9426,14 +8868,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9465,14 +8901,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9504,14 +8934,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9543,14 +8967,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9582,14 +9000,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +9033,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9660,14 +9066,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9699,14 +9099,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9738,14 +9132,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9777,14 +9165,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +9198,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9855,14 +9231,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +9264,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +9297,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9972,14 +9330,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10011,14 +9363,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +9396,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10089,14 +9429,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +9462,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10167,14 +9495,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10206,14 +9528,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10245,14 +9561,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10284,14 +9594,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10323,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10362,14 +9660,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10401,14 +9693,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10440,14 +9726,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10479,14 +9759,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10518,14 +9792,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10557,14 +9825,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10596,14 +9858,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10635,14 +9891,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10674,14 +9924,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10713,14 +9957,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10752,14 +9990,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +10023,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +10056,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10869,14 +10089,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +10122,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +10155,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +10221,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +10254,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11103,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +10320,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +10353,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +10386,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11259,14 +10419,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +10452,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +10485,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +10551,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11454,14 +10584,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11493,14 +10617,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11532,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11571,14 +10683,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11610,14 +10716,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +10749,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11688,14 +10782,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11727,14 +10815,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11766,14 +10848,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11805,14 +10881,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11844,14 +10914,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11883,14 +10947,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11922,14 +10980,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11961,14 +11013,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12000,14 +11046,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12039,14 +11079,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12078,14 +11112,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12117,14 +11145,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12156,14 +11178,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12195,14 +11211,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12234,14 +11244,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12273,14 +11277,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12312,14 +11310,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12351,14 +11343,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12390,14 +11376,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12429,14 +11409,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12468,14 +11442,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12507,14 +11475,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12546,14 +11508,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12585,14 +11541,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12624,14 +11574,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12663,14 +11607,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12702,14 +11640,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12741,14 +11673,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12780,14 +11706,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12819,14 +11739,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12858,14 +11772,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12897,14 +11805,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12936,14 +11838,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12975,14 +11871,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13014,14 +11904,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13053,14 +11937,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13092,14 +11970,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13131,14 +12003,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13170,14 +12036,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13209,14 +12069,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13248,14 +12102,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13287,14 +12135,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13326,14 +12168,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13365,14 +12201,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13404,14 +12234,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13443,14 +12267,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13482,14 +12300,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13521,14 +12333,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13560,14 +12366,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13599,14 +12399,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13638,14 +12432,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13677,14 +12465,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13716,14 +12498,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13755,14 +12531,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13794,14 +12564,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13833,14 +12597,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13872,14 +12630,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13911,14 +12663,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13950,14 +12696,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13989,14 +12729,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14028,14 +12762,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14064,17 +12792,11 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14103,17 +12825,11 @@
         <v>-126.2749309099998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14142,17 +12858,11 @@
         <v>-136.5573309099998</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14181,17 +12891,11 @@
         <v>-134.2803309099998</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14220,17 +12924,11 @@
         <v>-151.2803309099998</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14259,17 +12957,11 @@
         <v>-151.0783309099998</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14298,17 +12990,11 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14337,17 +13023,11 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14379,14 +13059,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14418,14 +13092,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14457,14 +13125,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14493,17 +13155,11 @@
         <v>-54.38753090999978</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +13191,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14574,14 +13224,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +13257,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14652,14 +13290,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14691,14 +13323,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14730,14 +13356,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14769,14 +13389,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14808,14 +13422,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14847,14 +13455,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14886,14 +13488,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14925,14 +13521,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14964,14 +13554,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15000,17 +13584,11 @@
         <v>3.245009130000221</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15042,14 +13620,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +13653,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15120,14 +13686,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15159,14 +13719,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15198,14 +13752,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15237,14 +13785,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15276,14 +13818,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15315,14 +13851,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +13884,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15393,14 +13917,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15432,14 +13950,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15471,14 +13983,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15510,14 +14016,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15549,14 +14049,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15588,14 +14082,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +14115,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15666,14 +14148,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15705,14 +14181,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15744,14 +14214,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +14247,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15822,14 +14280,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +14313,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +14346,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15939,14 +14379,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15978,14 +14412,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +14445,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16056,14 +14478,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16095,14 +14511,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16134,14 +14544,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16173,14 +14577,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +14610,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16251,14 +14643,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16290,14 +14676,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +14709,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16368,14 +14742,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16407,14 +14775,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16446,14 +14808,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16485,14 +14841,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16524,14 +14874,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16563,14 +14907,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16602,14 +14940,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16641,14 +14973,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16680,14 +15006,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16719,14 +15039,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16758,14 +15072,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16797,14 +15105,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16836,14 +15138,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16875,14 +15171,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16914,14 +15204,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16953,14 +15237,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16992,14 +15270,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17031,14 +15303,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17070,14 +15336,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17109,14 +15369,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17148,14 +15402,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17187,14 +15435,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +15468,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17265,14 +15501,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17304,14 +15534,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17343,14 +15567,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +15600,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17421,14 +15633,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17460,14 +15666,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17499,14 +15699,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17538,14 +15732,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17577,14 +15765,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17616,14 +15798,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17655,14 +15831,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17694,14 +15864,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17733,14 +15897,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17772,14 +15930,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +15963,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17850,14 +15996,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17889,14 +16029,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17928,14 +16062,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17967,14 +16095,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18006,14 +16128,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18045,14 +16161,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18084,14 +16194,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18123,14 +16227,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18162,14 +16260,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18201,14 +16293,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18240,14 +16326,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18279,14 +16359,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18318,14 +16392,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18357,14 +16425,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18396,14 +16458,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18435,14 +16491,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18474,14 +16524,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18513,14 +16557,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18552,14 +16590,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18591,14 +16623,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18630,14 +16656,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18669,14 +16689,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18708,14 +16722,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18747,14 +16755,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18786,14 +16788,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18825,14 +16821,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18864,14 +16854,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18903,14 +16887,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18942,14 +16920,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18981,14 +16953,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19020,14 +16986,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19059,14 +17019,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19098,14 +17052,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19137,14 +17085,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19176,14 +17118,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19215,14 +17151,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19254,14 +17184,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19293,14 +17217,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19332,14 +17250,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19371,14 +17283,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19410,14 +17316,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19449,14 +17349,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19488,14 +17382,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19527,14 +17415,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19566,14 +17448,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19605,14 +17481,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19644,14 +17514,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19683,14 +17547,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19722,14 +17580,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19761,14 +17613,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19800,14 +17646,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19839,14 +17679,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19878,14 +17712,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19917,14 +17745,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19956,14 +17778,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19995,14 +17811,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20031,19 +17841,13 @@
         <v>-108.1022063099998</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>64400</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
-        <v>1.033819875776398</v>
+        <v>1</v>
       </c>
       <c r="M508" t="inlineStr"/>
     </row>
@@ -20070,7 +17874,7 @@
         <v>-145.2604063099998</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20103,7 +17907,7 @@
         <v>65.0729936900002</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20136,7 +17940,7 @@
         <v>65.0729936900002</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20169,7 +17973,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20202,7 +18006,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20235,7 +18039,7 @@
         <v>99.8429936900002</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20268,7 +18072,7 @@
         <v>132.2278936900002</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20301,7 +18105,7 @@
         <v>130.5799936900002</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20334,7 +18138,7 @@
         <v>186.6156936900002</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20367,7 +18171,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20400,7 +18204,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20433,7 +18237,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20466,7 +18270,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20499,7 +18303,7 @@
         <v>173.7162936900002</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20532,7 +18336,7 @@
         <v>163.1221936900002</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20565,7 +18369,7 @@
         <v>164.0603936900002</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20598,7 +18402,7 @@
         <v>61.86949369000018</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20631,7 +18435,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20664,7 +18468,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20697,7 +18501,7 @@
         <v>133.4475936900002</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20730,7 +18534,7 @@
         <v>211.9158936900002</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -21522,7 +19326,7 @@
         <v>-302.2086063099998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21555,7 +19359,7 @@
         <v>-321.3826063099998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21588,7 +19392,7 @@
         <v>-894.9246063099998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21621,7 +19425,7 @@
         <v>-752.5272063099999</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21654,7 +19458,7 @@
         <v>-752.5272063099999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21687,7 +19491,7 @@
         <v>-713.3973063099999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21698,6 +19502,6 @@
       <c r="M558" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest LTC.xlsx
+++ b/BackTest/2019-10-27 BackTest LTC.xlsx
@@ -1804,11 +1804,17 @@
         <v>-990.5214657300002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>64000</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1843,17 @@
         <v>-1257.62526573</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>64200</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1882,17 @@
         <v>-1214.26696573</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>63800</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1908,10 +1926,12 @@
       <c r="I46" t="n">
         <v>63900</v>
       </c>
-      <c r="J46" t="n">
-        <v>63900</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1945,12 +1965,10 @@
       <c r="I47" t="n">
         <v>63700</v>
       </c>
-      <c r="J47" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1986,9 +2004,7 @@
       <c r="I48" t="n">
         <v>63150</v>
       </c>
-      <c r="J48" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2027,9 +2043,7 @@
       <c r="I49" t="n">
         <v>63500</v>
       </c>
-      <c r="J49" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,9 +2082,7 @@
       <c r="I50" t="n">
         <v>63700</v>
       </c>
-      <c r="J50" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,9 +2121,7 @@
       <c r="I51" t="n">
         <v>63950</v>
       </c>
-      <c r="J51" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,9 +2160,7 @@
       <c r="I52" t="n">
         <v>64000</v>
       </c>
-      <c r="J52" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,9 +2199,7 @@
       <c r="I53" t="n">
         <v>64200</v>
       </c>
-      <c r="J53" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,12 +2233,12 @@
         <v>-933.53416573</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,12 +2272,12 @@
         <v>-899.1942657300001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>64400</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2308,9 +2314,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,9 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2386,9 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,9 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,9 +2462,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2503,9 +2499,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,9 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2581,9 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,9 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2659,9 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2698,9 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,9 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2776,9 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2815,9 +2795,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2854,9 +2832,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2893,9 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,9 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2971,9 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,9 +2980,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3049,9 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,9 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,9 +3091,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,9 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,9 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,12 +3199,12 @@
         <v>-900.5912657300001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>64100</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3283,9 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3400,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3439,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3478,9 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,9 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,12 +3571,12 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>64100</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,12 +3610,12 @@
         <v>-1001.84616573</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,12 +3649,12 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>64200</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,12 +3688,12 @@
         <v>-1002.34606573</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,12 +3727,12 @@
         <v>-1000.45926573</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64150</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,12 +3766,12 @@
         <v>-961.4143657300002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>64350</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,12 +3805,12 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>64450</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,12 +3844,12 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,12 +3883,12 @@
         <v>-959.5968657300002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,12 +3922,12 @@
         <v>-971.7546657300002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>64600</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,12 +3961,12 @@
         <v>-970.1356657300001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>64550</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,9 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,9 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,9 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,9 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,12 +4185,12 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>64100</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,12 +4224,12 @@
         <v>-974.1782657300001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>64250</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4336,9 +4266,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,9 +4303,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,12 +4337,12 @@
         <v>-1019.14226573</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>63950</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,12 +4376,12 @@
         <v>-1011.26666573</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>63700</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,12 +4415,12 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
         <v>63900</v>
       </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,12 +4454,12 @@
         <v>-1013.26666573</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,12 +4493,12 @@
         <v>-1083.23746573</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>63800</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,9 +4537,7 @@
       <c r="I115" t="n">
         <v>63550</v>
       </c>
-      <c r="J115" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,12 +4571,12 @@
         <v>-893.4153657300002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>63900</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>63750</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,9 +4615,7 @@
       <c r="I117" t="n">
         <v>63800</v>
       </c>
-      <c r="J117" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4654,7 @@
       <c r="I118" t="n">
         <v>63800</v>
       </c>
-      <c r="J118" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,9 +4693,7 @@
       <c r="I119" t="n">
         <v>63800</v>
       </c>
-      <c r="J119" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4812,9 +4730,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4851,9 +4767,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,9 +4804,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4929,9 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4968,9 +4878,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5007,9 +4915,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,9 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5085,9 +4989,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5124,9 +5026,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,9 +5063,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5202,9 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5241,9 +5137,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5280,9 +5174,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,9 +5211,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5358,9 +5248,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5397,9 +5285,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5436,9 +5322,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5475,9 +5359,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5514,9 +5396,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,9 +5433,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5592,9 +5470,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5631,9 +5507,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,9 +5544,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5709,9 +5581,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5748,9 +5618,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5787,9 +5655,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5826,9 +5692,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,9 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,9 +5766,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5943,9 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,9 +5840,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6021,9 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,9 +5914,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6099,9 +5951,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,9 +5988,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6177,9 +6025,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6216,9 +6062,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6252,19 +6096,17 @@
         <v>-767.0235502500001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>63900</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.010649452269171</v>
+        <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -6295,7 +6137,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6328,7 +6174,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6361,7 +6211,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6244,15 @@
         <v>-472.09325025</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6423,11 +6281,15 @@
         <v>-474.98725025</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6318,15 @@
         <v>-474.71715025</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6489,11 +6355,15 @@
         <v>-485.95275025</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6392,15 @@
         <v>-485.95275025</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6559,7 +6433,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6592,7 +6470,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6625,7 +6507,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6658,7 +6544,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6691,7 +6581,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6724,7 +6618,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6757,7 +6655,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6790,7 +6692,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6823,7 +6729,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6856,7 +6766,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6889,7 +6803,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6836,15 @@
         <v>-476.48945025</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6873,15 @@
         <v>-473.24205025</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6910,15 @@
         <v>-473.24205025</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6947,15 @@
         <v>-436.73915025</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6984,15 @@
         <v>-436.73915025</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +7021,15 @@
         <v>-436.73915025</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +7058,15 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7149,11 +7095,15 @@
         <v>-435.8701502499999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +7132,15 @@
         <v>-440.7078502499999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +7169,15 @@
         <v>-427.0872502499999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +7206,15 @@
         <v>-432.6193502499999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7243,15 @@
         <v>-451.9214502499999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7280,15 @@
         <v>-461.9918502499999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7317,15 @@
         <v>-459.3798502499999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7380,11 +7354,15 @@
         <v>-396.1770502499999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7391,15 @@
         <v>-406.9770502499999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7428,15 @@
         <v>-470.0218502499999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7465,15 @@
         <v>-475.5592502499999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7502,15 @@
         <v>-455.5592502499999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7539,15 @@
         <v>-472.6312502499999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7582,7 +7580,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7615,7 +7617,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7648,7 +7654,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7681,7 +7691,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7714,7 +7728,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7747,7 +7765,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7780,7 +7802,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7813,7 +7839,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7846,7 +7876,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7879,7 +7913,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7912,7 +7950,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7945,7 +7987,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7978,7 +8024,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8011,7 +8061,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8044,7 +8098,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +8135,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8110,7 +8172,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8143,7 +8209,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8176,7 +8246,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8209,7 +8283,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8242,7 +8320,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8275,7 +8357,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8308,7 +8394,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8341,7 +8431,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8374,7 +8468,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8407,7 +8505,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8440,7 +8542,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8579,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8506,7 +8616,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8539,7 +8653,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8572,7 +8690,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8605,7 +8727,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8638,7 +8764,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8671,7 +8801,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8704,7 +8838,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8737,7 +8875,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8770,7 +8912,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8803,7 +8949,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8836,7 +8986,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8869,7 +9023,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8902,7 +9060,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8935,7 +9097,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8968,7 +9134,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9001,7 +9171,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +9208,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9067,7 +9245,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9100,7 +9282,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9133,7 +9319,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +9356,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9199,7 +9393,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9430,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9265,7 +9467,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +9504,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9331,7 +9541,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9364,7 +9578,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +9615,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9430,7 +9652,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9689,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9496,7 +9726,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9763,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9800,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9837,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9874,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9661,7 +9911,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9694,7 +9948,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9727,7 +9985,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9760,7 +10022,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9793,7 +10059,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9826,7 +10096,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9859,7 +10133,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9892,7 +10170,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +10207,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9958,7 +10244,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9991,7 +10281,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10024,7 +10318,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10057,7 +10355,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10090,7 +10392,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10123,7 +10429,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10156,7 +10466,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10189,7 +10503,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10222,7 +10540,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10255,7 +10577,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10288,7 +10614,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10321,7 +10651,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10354,7 +10688,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10387,7 +10725,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10420,7 +10762,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10453,7 +10799,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10486,7 +10836,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10519,7 +10873,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10552,7 +10910,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10585,7 +10947,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10618,7 +10984,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10651,7 +11021,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10684,7 +11058,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10717,7 +11095,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10750,7 +11132,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11169,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10816,7 +11206,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +11243,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +11280,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10915,7 +11317,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10948,7 +11354,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10981,7 +11391,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +11428,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +11465,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11502,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11113,7 +11539,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +11576,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +11613,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11650,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11245,7 +11687,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11724,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11311,7 +11761,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +11798,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11377,7 +11835,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11410,7 +11872,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11443,7 +11909,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11476,7 +11946,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +11983,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +12020,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11575,7 +12057,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11608,7 +12094,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11641,7 +12131,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11674,7 +12168,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11707,7 +12205,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11740,7 +12242,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11773,7 +12279,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11806,7 +12316,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11839,7 +12353,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +12390,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11905,7 +12427,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +12464,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11971,7 +12501,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12004,7 +12538,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12037,7 +12575,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12070,7 +12612,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12103,7 +12649,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12136,7 +12686,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12169,7 +12723,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12202,7 +12760,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12235,7 +12797,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12268,7 +12834,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12301,7 +12871,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12334,7 +12908,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12367,7 +12945,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12400,7 +12982,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12433,7 +13019,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12466,7 +13056,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12499,7 +13093,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12532,7 +13130,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12565,7 +13167,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12598,7 +13204,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12631,7 +13241,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12664,7 +13278,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12697,7 +13315,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12730,7 +13352,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12763,7 +13389,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12792,11 +13422,15 @@
         <v>-115.8336309099998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12825,11 +13459,15 @@
         <v>-126.2749309099998</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12858,11 +13496,15 @@
         <v>-136.5573309099998</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12891,11 +13533,15 @@
         <v>-134.2803309099998</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12924,11 +13570,15 @@
         <v>-151.2803309099998</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12957,11 +13607,15 @@
         <v>-151.0783309099998</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12990,11 +13644,15 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13023,11 +13681,15 @@
         <v>-152.2106309099998</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +13722,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13093,7 +13759,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13126,7 +13796,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13155,11 +13829,15 @@
         <v>-54.38753090999978</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13192,7 +13870,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13225,7 +13907,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13258,7 +13944,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13291,7 +13981,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13324,7 +14018,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13357,7 +14055,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +14092,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13423,7 +14129,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13456,7 +14166,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13489,7 +14203,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13522,7 +14240,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13555,7 +14277,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13584,11 +14310,15 @@
         <v>3.245009130000221</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13621,7 +14351,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13654,7 +14388,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13687,7 +14425,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13720,7 +14462,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13753,7 +14499,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13786,7 +14536,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13819,7 +14573,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13852,7 +14610,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13885,7 +14647,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13918,7 +14684,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13951,7 +14721,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13984,7 +14758,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +14795,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14050,7 +14832,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14083,7 +14869,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14116,7 +14906,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14149,7 +14943,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14182,7 +14980,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14215,7 +15017,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14248,7 +15054,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14281,7 +15091,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14314,7 +15128,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14347,7 +15165,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14380,7 +15202,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14413,7 +15239,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14446,7 +15276,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14479,7 +15313,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14512,7 +15350,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14545,7 +15387,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14578,7 +15424,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14611,7 +15461,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14644,7 +15498,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14677,7 +15535,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14710,7 +15572,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14743,7 +15609,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14776,7 +15646,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14809,7 +15683,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14842,7 +15720,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14875,7 +15757,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14908,7 +15794,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14941,7 +15831,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14974,7 +15868,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15007,7 +15905,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15040,7 +15942,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15073,7 +15979,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15106,7 +16016,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15139,7 +16053,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +16090,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15205,7 +16127,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15238,7 +16164,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15271,7 +16201,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15304,7 +16238,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15337,7 +16275,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15370,7 +16312,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +16349,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15436,7 +16386,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15469,7 +16423,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15502,7 +16460,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15535,7 +16497,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15568,7 +16534,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15601,7 +16571,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15634,7 +16608,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15667,7 +16645,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15700,7 +16682,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15733,7 +16719,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15766,7 +16756,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15799,7 +16793,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15832,7 +16830,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15865,7 +16867,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15898,7 +16904,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15931,7 +16941,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15964,7 +16978,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15997,7 +17015,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16030,7 +17052,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16063,7 +17089,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16096,7 +17126,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16129,7 +17163,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16162,7 +17200,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16195,7 +17237,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16228,7 +17274,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16261,7 +17311,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16294,7 +17348,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16327,7 +17385,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16360,7 +17422,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16393,7 +17459,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16426,7 +17496,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16459,7 +17533,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +17570,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16525,7 +17607,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +17644,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16591,7 +17681,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16624,7 +17718,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16657,7 +17755,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16690,7 +17792,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16723,7 +17829,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16756,7 +17866,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16789,7 +17903,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16822,7 +17940,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16855,7 +17977,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16888,7 +18014,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16921,7 +18051,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16954,7 +18088,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16987,7 +18125,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17020,7 +18162,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17053,7 +18199,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17086,7 +18236,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17119,7 +18273,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17152,7 +18310,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17185,7 +18347,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17218,7 +18384,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17251,7 +18421,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17284,7 +18458,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17317,7 +18495,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17350,7 +18532,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17383,7 +18569,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17416,7 +18606,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17449,7 +18643,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17482,7 +18680,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17515,7 +18717,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17548,7 +18754,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17581,7 +18791,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17614,7 +18828,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17643,14 +18861,16 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="inlineStr"/>
     </row>
     <row r="503">
@@ -17676,7 +18896,7 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17709,7 +18929,7 @@
         <v>101.5840936900002</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17742,7 +18962,7 @@
         <v>107.0472936900002</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17775,7 +18995,7 @@
         <v>129.4044936900002</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17808,7 +19028,7 @@
         <v>75.20159369000018</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17841,7 +19061,7 @@
         <v>-108.1022063099998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17874,7 +19094,7 @@
         <v>-145.2604063099998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18006,7 +19226,7 @@
         <v>69.8439936900002</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18039,7 +19259,7 @@
         <v>99.8429936900002</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18072,7 +19292,7 @@
         <v>132.2278936900002</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18105,7 +19325,7 @@
         <v>130.5799936900002</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18138,7 +19358,7 @@
         <v>186.6156936900002</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18171,7 +19391,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18204,7 +19424,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18237,7 +19457,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18270,7 +19490,7 @@
         <v>187.2445936900002</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18303,7 +19523,7 @@
         <v>173.7162936900002</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18336,7 +19556,7 @@
         <v>163.1221936900002</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18369,7 +19589,7 @@
         <v>164.0603936900002</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18402,7 +19622,7 @@
         <v>61.86949369000018</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18435,7 +19655,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18468,7 +19688,7 @@
         <v>65.69979369000018</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18501,7 +19721,7 @@
         <v>133.4475936900002</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18534,7 +19754,7 @@
         <v>211.9158936900002</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18567,7 +19787,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18600,7 +19820,7 @@
         <v>198.2660936900002</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18633,7 +19853,7 @@
         <v>203.7846936900002</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18666,7 +19886,7 @@
         <v>196.0407936900002</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18699,7 +19919,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18732,7 +19952,7 @@
         <v>186.0407936900002</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18765,7 +19985,7 @@
         <v>286.0407936900002</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18798,7 +20018,7 @@
         <v>269.6369936900002</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18831,7 +20051,7 @@
         <v>147.8003936900002</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18864,7 +20084,7 @@
         <v>299.3913936900002</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18897,7 +20117,7 @@
         <v>299.1913936900002</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18930,7 +20150,7 @@
         <v>323.4635936900002</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18963,7 +20183,7 @@
         <v>298.8952936900002</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18996,7 +20216,7 @@
         <v>214.2470936900002</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19029,7 +20249,7 @@
         <v>-86.77930630999984</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19062,7 +20282,7 @@
         <v>-33.27270630999984</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
